--- a/Data/Export/34 RN Ile du Girard.xlsx
+++ b/Data/Export/34 RN Ile du Girard.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="600" windowWidth="28220" windowHeight="11960"/>
+    <workbookView xWindow="285" yWindow="600" windowWidth="24240" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Placettes" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Reperes!$A$1:$G$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Transect!$A$1:$L$341</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7938" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7939" uniqueCount="128">
   <si>
     <t>num</t>
   </si>
@@ -415,28 +410,29 @@
   <si>
     <t>Groupe2</t>
   </si>
+  <si>
+    <t>Habitat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -444,27 +440,17 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="12"/>
@@ -489,13 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,8 +495,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -520,110 +515,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="32"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="35">
-    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="32"/>
-    <cellStyle name="Pourcentage 2" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Pourcentage 2" xfId="3"/>
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
     <cellStyle name="XLConnect.DateTime" xfId="5"/>
-    <cellStyle name="XLConnect.Header" xfId="1"/>
-    <cellStyle name="XLConnect.Numeric" xfId="3"/>
-    <cellStyle name="XLConnect.String" xfId="2"/>
+    <cellStyle name="XLConnect.Header" xfId="6"/>
+    <cellStyle name="XLConnect.Numeric" xfId="7"/>
+    <cellStyle name="XLConnect.String" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -913,18 +840,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3340" topLeftCell="A50"/>
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <pane ySplit="3345" topLeftCell="A50"/>
+      <selection activeCell="T2" sqref="T2"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
@@ -982,8 +909,11 @@
       <c r="S1" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>34</v>
       </c>
@@ -1027,7 +957,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>34</v>
       </c>
@@ -1071,7 +1001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>34</v>
       </c>
@@ -1115,7 +1045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>34</v>
       </c>
@@ -1159,7 +1089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>34</v>
       </c>
@@ -1203,7 +1133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>34</v>
       </c>
@@ -1247,7 +1177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>34</v>
       </c>
@@ -1291,7 +1221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>34</v>
       </c>
@@ -1335,7 +1265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>34</v>
       </c>
@@ -1379,7 +1309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>34</v>
       </c>
@@ -1423,7 +1353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>34</v>
       </c>
@@ -1467,7 +1397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>34</v>
       </c>
@@ -1511,7 +1441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>34</v>
       </c>
@@ -1555,7 +1485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>34</v>
       </c>
@@ -1599,7 +1529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>34</v>
       </c>
@@ -3316,30 +3246,23 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:V54">
-    <sortCondition ref="B2:B54"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q1303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2500" topLeftCell="A1299"/>
+      <pane ySplit="2505" topLeftCell="A1299"/>
       <selection activeCell="K2" sqref="K2:K1303"/>
       <selection pane="bottomLeft" activeCell="K1308" sqref="K1308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
@@ -54494,30 +54417,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q1303"/>
-  <sortState ref="A2:Q1303">
-    <sortCondition ref="A2:A1303"/>
-    <sortCondition ref="B2:B1303"/>
-    <sortCondition ref="F2:F1303"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E72" sqref="E72:E97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
@@ -58537,24 +58451,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
@@ -70832,27 +70742,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J2:K341" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
@@ -72625,20 +72531,16 @@
       <c r="M45" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="K2:L45" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -72647,7 +72549,7 @@
       <selection pane="bottomLeft" activeCell="A108" sqref="A108:B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
@@ -75854,950 +75756,942 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G54"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="13">
-        <v>34</v>
-      </c>
-      <c r="B2" s="13">
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="3">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="15">
         <v>39953</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="13">
-        <v>34</v>
-      </c>
-      <c r="B3" s="13">
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="3">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>39953</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="13">
-        <v>34</v>
-      </c>
-      <c r="B4" s="13">
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="3">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>39933</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="13">
-        <v>34</v>
-      </c>
-      <c r="B5" s="13">
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="3">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>39933</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="13">
-        <v>34</v>
-      </c>
-      <c r="B6" s="13">
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="3">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>39930</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="13">
-        <v>34</v>
-      </c>
-      <c r="B7" s="13">
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="3">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>39933</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="13">
-        <v>34</v>
-      </c>
-      <c r="B8" s="13">
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="3">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>39938</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="13">
-        <v>34</v>
-      </c>
-      <c r="B9" s="13">
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="3">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
         <v>8</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>39933</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="13">
-        <v>34</v>
-      </c>
-      <c r="B10" s="13">
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="3">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3">
         <v>9</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>39938</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="13">
-        <v>34</v>
-      </c>
-      <c r="B11" s="13">
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="3">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>39940</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="13">
-        <v>34</v>
-      </c>
-      <c r="B12" s="13">
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="3">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
         <v>11</v>
       </c>
       <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>39933</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="13">
-        <v>34</v>
-      </c>
-      <c r="B13" s="13">
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="3">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
         <v>12</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>39931</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="13">
-        <v>34</v>
-      </c>
-      <c r="B14" s="13">
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="3">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3">
         <v>13</v>
       </c>
       <c r="C14" s="12">
         <v>1</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>39933</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="13">
-        <v>34</v>
-      </c>
-      <c r="B15" s="13">
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="3">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3">
         <v>14</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>39931</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="13">
-        <v>34</v>
-      </c>
-      <c r="B16" s="13">
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="3">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3">
         <v>15</v>
       </c>
       <c r="C16" s="12">
         <v>1</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>39931</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="13">
-        <v>34</v>
-      </c>
-      <c r="B17" s="13">
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="3">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3">
         <v>16</v>
       </c>
       <c r="C17" s="12">
         <v>1</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>39933</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="13">
-        <v>34</v>
-      </c>
-      <c r="B18" s="13">
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="3">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3">
         <v>17</v>
       </c>
       <c r="C18" s="12">
         <v>1</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>39945</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="13">
-        <v>34</v>
-      </c>
-      <c r="B19" s="13">
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="3">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
         <v>18</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>39931</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="13">
-        <v>34</v>
-      </c>
-      <c r="B20" s="13">
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="3">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
         <v>19</v>
       </c>
       <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>39945</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15">
-      <c r="A21" s="13">
-        <v>34</v>
-      </c>
-      <c r="B21" s="13">
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="3">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3">
         <v>20</v>
       </c>
       <c r="C21" s="12">
         <v>1</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>39938</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="13">
-        <v>34</v>
-      </c>
-      <c r="B22" s="13">
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="3">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3">
         <v>21</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>39945</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="13">
-        <v>34</v>
-      </c>
-      <c r="B23" s="13">
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="3">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3">
         <v>22</v>
       </c>
       <c r="C23" s="12">
         <v>1</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <v>39945</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="13">
-        <v>34</v>
-      </c>
-      <c r="B24" s="13">
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="3">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3">
         <v>23</v>
       </c>
       <c r="C24" s="12">
         <v>1</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="3">
         <v>3</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <v>39945</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="13">
-        <v>34</v>
-      </c>
-      <c r="B25" s="13">
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="3">
+        <v>34</v>
+      </c>
+      <c r="B25" s="3">
         <v>24</v>
       </c>
       <c r="C25" s="12">
         <v>1</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <v>39951</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="13">
-        <v>34</v>
-      </c>
-      <c r="B26" s="13">
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="3">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3">
         <v>25</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="3">
         <v>3</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="15">
         <v>39932</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="13">
-        <v>34</v>
-      </c>
-      <c r="B27" s="13">
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="3">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3">
         <v>26</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="15">
         <v>39945</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="13">
-        <v>34</v>
-      </c>
-      <c r="B28" s="13">
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="3">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3">
         <v>27</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="15">
         <v>39945</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="13">
-        <v>34</v>
-      </c>
-      <c r="B29" s="13">
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="3">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3">
         <v>28</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="3">
         <v>3</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="15">
         <v>39938</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="13">
-        <v>34</v>
-      </c>
-      <c r="B30" s="13">
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="3">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3">
         <v>29</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="15">
         <v>39938</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="13">
-        <v>34</v>
-      </c>
-      <c r="B31" s="13">
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="3">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3">
         <v>30</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="3">
         <v>3</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <v>39946</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="13">
-        <v>34</v>
-      </c>
-      <c r="B32" s="13">
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="3">
+        <v>34</v>
+      </c>
+      <c r="B32" s="3">
         <v>31</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="15">
         <v>39939</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15">
-      <c r="A33" s="13">
-        <v>34</v>
-      </c>
-      <c r="B33" s="13">
+    <row r="33" spans="1:5" ht="15.75">
+      <c r="A33" s="3">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3">
         <v>32</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="3">
         <v>3</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
         <v>39939</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="13">
-        <v>34</v>
-      </c>
-      <c r="B34" s="13">
+    <row r="34" spans="1:5" ht="15.75">
+      <c r="A34" s="3">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
         <v>33</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="3">
         <v>3</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="15">
         <v>39939</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="13">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13">
+    <row r="35" spans="1:5" ht="15.75">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3">
         <v>34</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="3">
         <v>3</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="15">
         <v>39939</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15">
-      <c r="A36" s="13">
-        <v>34</v>
-      </c>
-      <c r="B36" s="13">
+    <row r="36" spans="1:5" ht="15.75">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
         <v>35</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="3">
         <v>3</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="15">
         <v>39939</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15">
-      <c r="A37" s="13">
-        <v>34</v>
-      </c>
-      <c r="B37" s="13">
+    <row r="37" spans="1:5" ht="15.75">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
         <v>36</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="3">
         <v>3</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="15">
         <v>39939</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15">
-      <c r="A38" s="13">
-        <v>34</v>
-      </c>
-      <c r="B38" s="13">
+    <row r="38" spans="1:5" ht="15.75">
+      <c r="A38" s="3">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3">
         <v>37</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="3">
         <v>3</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="15">
         <v>39939</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15">
-      <c r="A39" s="13">
-        <v>34</v>
-      </c>
-      <c r="B39" s="13">
+    <row r="39" spans="1:5" ht="15.75">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3">
         <v>38</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="3">
         <v>3</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="15">
         <v>39939</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15">
-      <c r="A40" s="13">
-        <v>34</v>
-      </c>
-      <c r="B40" s="13">
+    <row r="40" spans="1:5" ht="15.75">
+      <c r="A40" s="3">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3">
         <v>39</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="3">
         <v>3</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="15">
         <v>39947</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15">
-      <c r="A41" s="13">
-        <v>34</v>
-      </c>
-      <c r="B41" s="13">
+    <row r="41" spans="1:5" ht="15.75">
+      <c r="A41" s="3">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3">
         <v>40</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="3">
         <v>3</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="15">
         <v>39947</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15">
-      <c r="A42" s="13">
-        <v>34</v>
-      </c>
-      <c r="B42" s="13">
+    <row r="42" spans="1:5" ht="15.75">
+      <c r="A42" s="3">
+        <v>34</v>
+      </c>
+      <c r="B42" s="3">
         <v>41</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="15">
         <v>39924</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15">
-      <c r="A43" s="13">
-        <v>34</v>
-      </c>
-      <c r="B43" s="13">
+    <row r="43" spans="1:5" ht="15.75">
+      <c r="A43" s="3">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3">
         <v>42</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="3">
         <v>3</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="15">
         <v>39925</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15">
-      <c r="A44" s="13">
-        <v>34</v>
-      </c>
-      <c r="B44" s="13">
+    <row r="44" spans="1:5" ht="15.75">
+      <c r="A44" s="3">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3">
         <v>43</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="3">
         <v>3</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="15">
         <v>39947</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15">
-      <c r="A45" s="13">
-        <v>34</v>
-      </c>
-      <c r="B45" s="13">
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="3">
+        <v>34</v>
+      </c>
+      <c r="B45" s="3">
         <v>44</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="3">
         <v>3</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="15">
         <v>39927</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="13">
-        <v>34</v>
-      </c>
-      <c r="B46" s="13">
+    <row r="46" spans="1:5" ht="15.75">
+      <c r="A46" s="3">
+        <v>34</v>
+      </c>
+      <c r="B46" s="3">
         <v>45</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="3">
         <v>3</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="15">
         <v>39925</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="13">
-        <v>34</v>
-      </c>
-      <c r="B47" s="13">
+    <row r="47" spans="1:5" ht="15.75">
+      <c r="A47" s="3">
+        <v>34</v>
+      </c>
+      <c r="B47" s="3">
         <v>46</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="3">
         <v>3</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="15">
         <v>39947</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="13">
-        <v>34</v>
-      </c>
-      <c r="B48" s="13">
+    <row r="48" spans="1:5" ht="15.75">
+      <c r="A48" s="3">
+        <v>34</v>
+      </c>
+      <c r="B48" s="3">
         <v>47</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="3">
         <v>3</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="15">
         <v>39923</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="13">
-        <v>34</v>
-      </c>
-      <c r="B49" s="13">
+    <row r="49" spans="1:5" ht="15.75">
+      <c r="A49" s="3">
+        <v>34</v>
+      </c>
+      <c r="B49" s="3">
         <v>48</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="3">
         <v>3</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="15">
         <v>39925</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="13">
-        <v>34</v>
-      </c>
-      <c r="B50" s="13">
+    <row r="50" spans="1:5" ht="15.75">
+      <c r="A50" s="3">
+        <v>34</v>
+      </c>
+      <c r="B50" s="3">
         <v>49</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="3">
         <v>3</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="15">
         <v>39947</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="13">
-        <v>34</v>
-      </c>
-      <c r="B51" s="13">
+    <row r="51" spans="1:5" ht="15.75">
+      <c r="A51" s="3">
+        <v>34</v>
+      </c>
+      <c r="B51" s="3">
         <v>50</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="3">
         <v>3</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="15">
         <v>39932</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15">
-      <c r="A52" s="13">
-        <v>34</v>
-      </c>
-      <c r="B52" s="13">
+    <row r="52" spans="1:5" ht="15.75">
+      <c r="A52" s="3">
+        <v>34</v>
+      </c>
+      <c r="B52" s="3">
         <v>51</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="3">
         <v>3</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="15">
         <v>39951</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="13">
-        <v>34</v>
-      </c>
-      <c r="B53" s="13">
+    <row r="53" spans="1:5" ht="15.75">
+      <c r="A53" s="3">
+        <v>34</v>
+      </c>
+      <c r="B53" s="3">
         <v>52</v>
       </c>
       <c r="C53" s="12">
         <v>1</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="3">
         <v>3</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="15">
         <v>39944</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="A54" s="13">
-        <v>34</v>
-      </c>
-      <c r="B54" s="13">
+    <row r="54" spans="1:5" ht="15.75">
+      <c r="A54" s="3">
+        <v>34</v>
+      </c>
+      <c r="B54" s="3">
         <v>53</v>
       </c>
       <c r="C54" s="12">
         <v>1</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="3">
         <v>3</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="15">
         <v>39951</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>